--- a/service-map.xlsx
+++ b/service-map.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31922" windowHeight="17310"/>
+    <workbookView windowWidth="32278" windowHeight="17610"/>
   </bookViews>
   <sheets>
     <sheet name="ssg2srx" sheetId="1" r:id="rId1"/>
@@ -1913,7 +1913,7 @@
   <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" outlineLevelCol="2"/>

--- a/service-map.xlsx
+++ b/service-map.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31977" windowHeight="17295" activeTab="2"/>
+    <workbookView windowWidth="32128" windowHeight="17445"/>
   </bookViews>
   <sheets>
     <sheet name="ssg2srx" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="338">
   <si>
     <t xml:space="preserve">ANY </t>
   </si>
@@ -2049,8 +2049,8 @@
   <sheetPr/>
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" outlineLevelCol="3"/>
@@ -2397,7 +2397,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" ht="58.5" spans="1:4">
+    <row r="26" ht="39" spans="1:4">
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
@@ -2676,7 +2676,10 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="2:3">
+    <row r="47" spans="1:3">
+      <c r="A47" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B47" s="1" t="s">
         <v>93</v>
       </c>
@@ -2710,8 +2713,8 @@
   <sheetPr/>
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -3596,8 +3599,8 @@
   <sheetPr/>
   <dimension ref="B1:D192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" outlineLevelCol="3"/>
